--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjeon1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjeon1\Yjeon_Workplace2\AGA206\Roll-A-Ball_Yjeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -2476,7 +2476,7 @@
   <dimension ref="B2:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3792,12 +3792,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038568809679712428198C638AD5F8120" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bd8d10f57ae3bfb0b8f5a148225b432">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fc5e9e31-a8d1-42e9-a6f3-807247970528" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2da0a40184b9c1d8752afcf5c7aa984d" ns2:_="">
     <xsd:import namespace="fc5e9e31-a8d1-42e9-a6f3-807247970528"/>
@@ -3949,6 +3943,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
   <ds:schemaRefs>
@@ -3958,22 +3958,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="fc5e9e31-a8d1-42e9-a6f3-807247970528"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{835E68A1-0C60-4A47-8E43-D5E4BA6F338F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3989,4 +3973,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fc5e9e31-a8d1-42e9-a6f3-807247970528"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/AGA206 Assessment 2 Checklist.xlsx
+++ b/AGA206 Assessment 2 Checklist.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yjeon1\Yjeon_Workplace2\AGA206\Roll-A-Ball_Yjeon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\From 250 SSD\Trimester 2\Lab 1\Game project\Roll-A-Ball_Yjeon\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6BB7F3-516C-402B-8A16-E3228E54C39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7725"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>AGA206 Assessment 2 Checklist</t>
   </si>
@@ -139,11 +141,14 @@
   <si>
     <t>Come up with your own</t>
   </si>
+  <si>
+    <t>Add Jump Skill</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -363,7 +368,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -487,19 +492,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$35" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -523,7 +528,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$J$21" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$J$21" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2472,11 +2477,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:G5"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2545,7 +2550,7 @@
       </c>
       <c r="D8" s="8">
         <f>COUNTIFS(J18:J38,TRUE)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
@@ -2554,7 +2559,7 @@
       </c>
       <c r="D9" s="8">
         <f>K39</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2764,15 +2769,15 @@
       <c r="E21" s="7"/>
       <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G21" s="17"/>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
@@ -3092,7 +3097,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="19">
         <v>2</v>
@@ -3100,15 +3105,15 @@
       <c r="E35" s="7"/>
       <c r="F35" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>To Be Done</v>
+        <v>Done</v>
       </c>
       <c r="G35" s="17"/>
       <c r="J35" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -3186,7 +3191,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="K39" s="2">
         <f>SUM(K18:K38)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -3783,12 +3788,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3944,15 +3946,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="fc5e9e31-a8d1-42e9-a6f3-807247970528"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3976,17 +3989,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F4C952-2792-4F13-AAE1-711BCAAD3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14E3574E-6B93-421F-8C9B-EF2BAE2A1531}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="fc5e9e31-a8d1-42e9-a6f3-807247970528"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>